--- a/Test1.xlsx
+++ b/Test1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B187F29-49CE-4BD4-98C4-E7E872A4B14F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442F2E9E-2DF1-D84C-A9E0-6F3DAAF960DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="703">
   <si>
     <t>Featuretabelle_Tischplatte</t>
   </si>
@@ -2211,7 +2211,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2236,11 +2236,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2561,32 +2584,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ33"/>
+  <dimension ref="A1:AK34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O22" sqref="O22"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="21.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="33" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="21.42578125" style="1"/>
+    <col min="6" max="8" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="34" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="21.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2598,8 +2622,9 @@
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
+      <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2631,82 +2656,85 @@
         <v>10</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AC2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AD2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AG2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AH2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AI2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2738,85 +2766,88 @@
         <v>43</v>
       </c>
       <c r="K3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -2848,85 +2879,88 @@
         <v>78</v>
       </c>
       <c r="K4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AJ4" s="4" t="s">
+      <c r="AK4" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>6</v>
       </c>
@@ -2958,85 +2992,88 @@
         <v>113</v>
       </c>
       <c r="K5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Z5" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="AA5" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AF5" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="AF5" s="3" t="s">
+      <c r="AG5" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="AG5" s="3" t="s">
+      <c r="AH5" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="AH5" s="3" t="s">
+      <c r="AI5" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="AI5" s="3" t="s">
+      <c r="AJ5" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="AJ5" s="4" t="s">
+      <c r="AK5" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>32</v>
       </c>
@@ -3068,85 +3105,88 @@
         <v>148</v>
       </c>
       <c r="K6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="W6" s="3" t="s">
+      <c r="X6" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="Y6" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="Z6" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="AA6" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="AA6" s="3" t="s">
+      <c r="AB6" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="AB6" s="3" t="s">
+      <c r="AC6" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="AC6" s="3" t="s">
+      <c r="AD6" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AD6" s="3" t="s">
+      <c r="AE6" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="AE6" s="3" t="s">
+      <c r="AF6" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="AF6" s="3" t="s">
+      <c r="AG6" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="AG6" s="3" t="s">
+      <c r="AH6" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="AH6" s="3" t="s">
+      <c r="AI6" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="AI6" s="3" t="s">
+      <c r="AJ6" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="AJ6" s="4" t="s">
+      <c r="AK6" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>33</v>
       </c>
@@ -3178,85 +3218,88 @@
         <v>183</v>
       </c>
       <c r="K7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="X7" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="Y7" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="Z7" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="AA7" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="AA7" s="3" t="s">
+      <c r="AB7" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AC7" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="AC7" s="3" t="s">
+      <c r="AD7" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="AD7" s="3" t="s">
+      <c r="AE7" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="AE7" s="3" t="s">
+      <c r="AF7" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="AF7" s="3" t="s">
+      <c r="AG7" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="AG7" s="3" t="s">
+      <c r="AH7" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="AH7" s="3" t="s">
+      <c r="AI7" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="AI7" s="3" t="s">
+      <c r="AJ7" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="AJ7" s="4" t="s">
+      <c r="AK7" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>34</v>
       </c>
@@ -3288,85 +3331,88 @@
         <v>218</v>
       </c>
       <c r="K8" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="W8" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="Z8" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="Z8" s="3" t="s">
+      <c r="AA8" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="AA8" s="3" t="s">
+      <c r="AB8" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="AB8" s="3" t="s">
+      <c r="AC8" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AD8" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="AD8" s="3" t="s">
+      <c r="AE8" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="AE8" s="3" t="s">
+      <c r="AF8" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="AF8" s="3" t="s">
+      <c r="AG8" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="AG8" s="3" t="s">
+      <c r="AH8" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="AH8" s="3" t="s">
+      <c r="AI8" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="AI8" s="3" t="s">
+      <c r="AJ8" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="AJ8" s="4" t="s">
+      <c r="AK8" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>55</v>
       </c>
@@ -3398,85 +3444,88 @@
         <v>253</v>
       </c>
       <c r="K9" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="X9" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="Y9" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="Y9" s="3" t="s">
+      <c r="Z9" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="Z9" s="3" t="s">
+      <c r="AA9" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="AA9" s="3" t="s">
+      <c r="AB9" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="AB9" s="3" t="s">
+      <c r="AC9" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="AC9" s="3" t="s">
+      <c r="AD9" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="AD9" s="3" t="s">
+      <c r="AE9" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="AE9" s="3" t="s">
+      <c r="AF9" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="AF9" s="3" t="s">
+      <c r="AG9" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="AG9" s="3" t="s">
+      <c r="AH9" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="AH9" s="3" t="s">
+      <c r="AI9" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="AI9" s="3" t="s">
+      <c r="AJ9" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="AJ9" s="4" t="s">
+      <c r="AK9" s="4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>56</v>
       </c>
@@ -3508,85 +3557,88 @@
         <v>288</v>
       </c>
       <c r="K10" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="W10" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="X10" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="Y10" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="Y10" s="3" t="s">
+      <c r="Z10" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="Z10" s="3" t="s">
+      <c r="AA10" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="AA10" s="3" t="s">
+      <c r="AB10" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="AB10" s="3" t="s">
+      <c r="AC10" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="AC10" s="3" t="s">
+      <c r="AD10" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="AD10" s="3" t="s">
+      <c r="AE10" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="AE10" s="3" t="s">
+      <c r="AF10" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="AF10" s="3" t="s">
+      <c r="AG10" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="AG10" s="3" t="s">
+      <c r="AH10" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="AH10" s="3" t="s">
+      <c r="AI10" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="AI10" s="3" t="s">
+      <c r="AJ10" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="AJ10" s="4" t="s">
+      <c r="AK10" s="4" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="11" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>57</v>
       </c>
@@ -3618,85 +3670,88 @@
         <v>323</v>
       </c>
       <c r="K11" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="T11" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="U11" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="V11" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="W11" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="W11" s="3" t="s">
+      <c r="X11" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="X11" s="3" t="s">
+      <c r="Y11" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="Y11" s="3" t="s">
+      <c r="Z11" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="Z11" s="3" t="s">
+      <c r="AA11" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="AA11" s="3" t="s">
+      <c r="AB11" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="AB11" s="3" t="s">
+      <c r="AC11" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="AC11" s="3" t="s">
+      <c r="AD11" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="AD11" s="3" t="s">
+      <c r="AE11" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="AE11" s="3" t="s">
+      <c r="AF11" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="AF11" s="3" t="s">
+      <c r="AG11" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="AG11" s="3" t="s">
+      <c r="AH11" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="AH11" s="3" t="s">
+      <c r="AI11" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="AI11" s="3" t="s">
+      <c r="AJ11" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="AJ11" s="4" t="s">
+      <c r="AK11" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>58</v>
       </c>
@@ -3728,85 +3783,88 @@
         <v>358</v>
       </c>
       <c r="K12" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="R12" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="V12" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="W12" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="W12" s="3" t="s">
+      <c r="X12" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="X12" s="3" t="s">
+      <c r="Y12" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="Y12" s="3" t="s">
+      <c r="Z12" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="Z12" s="3" t="s">
+      <c r="AA12" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="AA12" s="3" t="s">
+      <c r="AB12" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="AB12" s="3" t="s">
+      <c r="AC12" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="AC12" s="3" t="s">
+      <c r="AD12" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="AD12" s="3" t="s">
+      <c r="AE12" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="AE12" s="3" t="s">
+      <c r="AF12" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="AF12" s="3" t="s">
+      <c r="AG12" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="AG12" s="3" t="s">
+      <c r="AH12" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="AH12" s="3" t="s">
+      <c r="AI12" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="AI12" s="3" t="s">
+      <c r="AJ12" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="AJ12" s="4" t="s">
+      <c r="AK12" s="4" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>59</v>
       </c>
@@ -3838,85 +3896,88 @@
         <v>393</v>
       </c>
       <c r="K13" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="P13" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="Q13" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="R13" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="S13" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="T13" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="T13" s="3" t="s">
+      <c r="U13" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="V13" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="W13" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="W13" s="3" t="s">
+      <c r="X13" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="X13" s="3" t="s">
+      <c r="Y13" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="Y13" s="3" t="s">
+      <c r="Z13" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="Z13" s="3" t="s">
+      <c r="AA13" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="AA13" s="3" t="s">
+      <c r="AB13" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="AB13" s="3" t="s">
+      <c r="AC13" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="AC13" s="3" t="s">
+      <c r="AD13" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="AD13" s="3" t="s">
+      <c r="AE13" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="AE13" s="3" t="s">
+      <c r="AF13" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="AF13" s="3" t="s">
+      <c r="AG13" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="AG13" s="3" t="s">
+      <c r="AH13" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="AH13" s="3" t="s">
+      <c r="AI13" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="AI13" s="3" t="s">
+      <c r="AJ13" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="AJ13" s="4" t="s">
+      <c r="AK13" s="4" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>60</v>
       </c>
@@ -3948,85 +4009,88 @@
         <v>428</v>
       </c>
       <c r="K14" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AB14" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AC14" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="AD14" s="3" t="s">
+      <c r="AE14" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="AE14" s="3" t="s">
+      <c r="AF14" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="AF14" s="3" t="s">
+      <c r="AG14" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="AG14" s="3" t="s">
+      <c r="AH14" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="AH14" s="3" t="s">
+      <c r="AI14" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="AI14" s="3" t="s">
+      <c r="AJ14" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="AJ14" s="4" t="s">
+      <c r="AK14" s="4" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="15" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>61</v>
       </c>
@@ -4058,85 +4122,88 @@
         <v>463</v>
       </c>
       <c r="K15" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="S15" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="T15" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="U15" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="V15" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="W15" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="W15" s="3" t="s">
+      <c r="X15" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="X15" s="3" t="s">
+      <c r="Y15" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="Y15" s="3" t="s">
+      <c r="Z15" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="Z15" s="3" t="s">
+      <c r="AA15" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="AA15" s="3" t="s">
+      <c r="AB15" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="AB15" s="3" t="s">
+      <c r="AC15" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="AC15" s="3" t="s">
+      <c r="AD15" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="AD15" s="3" t="s">
+      <c r="AE15" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="AE15" s="3" t="s">
+      <c r="AF15" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="AF15" s="3" t="s">
+      <c r="AG15" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="AG15" s="3" t="s">
+      <c r="AH15" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="AH15" s="3" t="s">
+      <c r="AI15" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="AI15" s="3" t="s">
+      <c r="AJ15" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="AJ15" s="4" t="s">
+      <c r="AK15" s="4" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="16" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>62</v>
       </c>
@@ -4168,85 +4235,88 @@
         <v>498</v>
       </c>
       <c r="K16" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="O16" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="P16" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="Q16" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="R16" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="S16" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="S16" s="3" t="s">
+      <c r="T16" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="U16" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="U16" s="3" t="s">
+      <c r="V16" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="W16" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="W16" s="3" t="s">
+      <c r="X16" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="X16" s="3" t="s">
+      <c r="Y16" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="Y16" s="3" t="s">
+      <c r="Z16" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="Z16" s="3" t="s">
+      <c r="AA16" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="AA16" s="3" t="s">
+      <c r="AB16" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="AB16" s="3" t="s">
+      <c r="AC16" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="AC16" s="3" t="s">
+      <c r="AD16" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="AD16" s="3" t="s">
+      <c r="AE16" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="AE16" s="3" t="s">
+      <c r="AF16" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="AF16" s="3" t="s">
+      <c r="AG16" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="AG16" s="3" t="s">
+      <c r="AH16" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="AH16" s="3" t="s">
+      <c r="AI16" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="AI16" s="3" t="s">
+      <c r="AJ16" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="AJ16" s="4" t="s">
+      <c r="AK16" s="4" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="17" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>63</v>
       </c>
@@ -4278,85 +4348,88 @@
         <v>533</v>
       </c>
       <c r="K17" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="O17" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="P17" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="Q17" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="R17" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="S17" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="T17" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="T17" s="3" t="s">
+      <c r="U17" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="V17" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="V17" s="3" t="s">
+      <c r="W17" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="W17" s="3" t="s">
+      <c r="X17" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="X17" s="3" t="s">
+      <c r="Y17" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="Y17" s="3" t="s">
+      <c r="Z17" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="Z17" s="3" t="s">
+      <c r="AA17" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="AA17" s="3" t="s">
+      <c r="AB17" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="AB17" s="3" t="s">
+      <c r="AC17" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="AC17" s="3" t="s">
+      <c r="AD17" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="AD17" s="3" t="s">
+      <c r="AE17" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="AE17" s="3" t="s">
+      <c r="AF17" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="AF17" s="3" t="s">
+      <c r="AG17" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="AG17" s="3" t="s">
+      <c r="AH17" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="AH17" s="3" t="s">
+      <c r="AI17" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="AI17" s="3" t="s">
+      <c r="AJ17" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="AJ17" s="4" t="s">
+      <c r="AK17" s="4" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="18" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>64</v>
       </c>
@@ -4388,85 +4461,88 @@
         <v>568</v>
       </c>
       <c r="K18" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="O18" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="P18" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="R18" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="S18" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="T18" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="U18" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="U18" s="3" t="s">
+      <c r="V18" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="W18" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="W18" s="3" t="s">
+      <c r="X18" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="X18" s="3" t="s">
+      <c r="Y18" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="Y18" s="3" t="s">
+      <c r="Z18" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="Z18" s="3" t="s">
+      <c r="AA18" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="AA18" s="3" t="s">
+      <c r="AB18" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="AB18" s="3" t="s">
+      <c r="AC18" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="AC18" s="3" t="s">
+      <c r="AD18" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="AD18" s="3" t="s">
+      <c r="AE18" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="AE18" s="3" t="s">
+      <c r="AF18" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="AF18" s="3" t="s">
+      <c r="AG18" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="AG18" s="3" t="s">
+      <c r="AH18" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="AH18" s="3" t="s">
+      <c r="AI18" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="AI18" s="3" t="s">
+      <c r="AJ18" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="AJ18" s="4" t="s">
+      <c r="AK18" s="4" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="19" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>65</v>
       </c>
@@ -4498,85 +4574,88 @@
         <v>603</v>
       </c>
       <c r="K19" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="O19" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="P19" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="R19" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="S19" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="S19" s="3" t="s">
+      <c r="T19" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="U19" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="U19" s="3" t="s">
+      <c r="V19" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="V19" s="3" t="s">
+      <c r="W19" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="W19" s="3" t="s">
+      <c r="X19" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="X19" s="3" t="s">
+      <c r="Y19" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="Y19" s="3" t="s">
+      <c r="Z19" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="Z19" s="3" t="s">
+      <c r="AA19" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="AA19" s="3" t="s">
+      <c r="AB19" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="AB19" s="3" t="s">
+      <c r="AC19" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="AC19" s="3" t="s">
+      <c r="AD19" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="AD19" s="3" t="s">
+      <c r="AE19" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="AE19" s="3" t="s">
+      <c r="AF19" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="AF19" s="3" t="s">
+      <c r="AG19" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="AG19" s="3" t="s">
+      <c r="AH19" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="AH19" s="3" t="s">
+      <c r="AI19" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="AI19" s="3" t="s">
+      <c r="AJ19" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="AJ19" s="4" t="s">
+      <c r="AK19" s="4" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="20" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>66</v>
       </c>
@@ -4608,85 +4687,88 @@
         <v>638</v>
       </c>
       <c r="K20" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="O20" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="R20" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="S20" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="T20" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="U20" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="V20" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="V20" s="3" t="s">
+      <c r="W20" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="W20" s="3" t="s">
+      <c r="X20" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="X20" s="3" t="s">
+      <c r="Y20" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="Y20" s="3" t="s">
+      <c r="Z20" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="Z20" s="3" t="s">
+      <c r="AA20" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="AA20" s="3" t="s">
+      <c r="AB20" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="AB20" s="3" t="s">
+      <c r="AC20" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="AC20" s="3" t="s">
+      <c r="AD20" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="AD20" s="3" t="s">
+      <c r="AE20" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="AE20" s="3" t="s">
+      <c r="AF20" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="AF20" s="3" t="s">
+      <c r="AG20" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="AG20" s="3" t="s">
+      <c r="AH20" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="AH20" s="3" t="s">
+      <c r="AI20" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="AI20" s="3" t="s">
+      <c r="AJ20" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="AJ20" s="4" t="s">
+      <c r="AK20" s="4" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="21" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>67</v>
       </c>
@@ -4718,85 +4800,88 @@
         <v>673</v>
       </c>
       <c r="K21" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="Q21" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="S21" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="T21" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="U21" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="V21" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="V21" s="3" t="s">
+      <c r="W21" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="W21" s="3" t="s">
+      <c r="X21" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="X21" s="3" t="s">
+      <c r="Y21" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="Y21" s="3" t="s">
+      <c r="Z21" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="Z21" s="3" t="s">
+      <c r="AA21" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="AA21" s="3" t="s">
+      <c r="AB21" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="AB21" s="3" t="s">
+      <c r="AC21" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="AC21" s="3" t="s">
+      <c r="AD21" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="AD21" s="3" t="s">
+      <c r="AE21" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="AE21" s="3" t="s">
+      <c r="AF21" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="AF21" s="3" t="s">
+      <c r="AG21" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="AG21" s="3" t="s">
+      <c r="AH21" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="AH21" s="3" t="s">
+      <c r="AI21" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="AI21" s="3" t="s">
+      <c r="AJ21" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="AJ21" s="4" t="s">
+      <c r="AK21" s="4" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="22" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>63</v>
       </c>
@@ -4828,7 +4913,7 @@
         <v>41</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>41</v>
+        <v>561</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>41</v>
@@ -4840,34 +4925,34 @@
         <v>41</v>
       </c>
       <c r="O22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P22" s="3" t="s">
         <v>702</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>41</v>
       </c>
       <c r="R22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S22" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="U22" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="V22" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="V22" s="3" t="s">
+      <c r="W22" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="W22" s="3" t="s">
+      <c r="X22" s="3" t="s">
         <v>403</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>41</v>
@@ -4876,37 +4961,40 @@
         <v>41</v>
       </c>
       <c r="AA22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB22" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="AB22" s="3" t="s">
+      <c r="AC22" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="AC22" s="3" t="s">
+      <c r="AD22" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="AD22" s="3" t="s">
+      <c r="AE22" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="AE22" s="3" t="s">
+      <c r="AF22" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="AF22" s="3" t="s">
+      <c r="AG22" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="AG22" s="3" t="s">
+      <c r="AH22" s="3" t="s">
         <v>403</v>
-      </c>
-      <c r="AH22" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="AI22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AJ22" s="4" t="s">
+      <c r="AJ22" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AK22" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="23" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4917,7 +5005,9 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="K23" s="3" t="s">
+        <v>561</v>
+      </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -4942,9 +5032,10 @@
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
-      <c r="AJ23" s="4"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="4"/>
     </row>
-    <row r="24" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4955,7 +5046,9 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+      <c r="K24" s="3" t="s">
+        <v>561</v>
+      </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -4980,9 +5073,10 @@
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
-      <c r="AJ24" s="4"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="4"/>
     </row>
-    <row r="25" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4993,7 +5087,9 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="K25" s="3" t="s">
+        <v>561</v>
+      </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -5018,9 +5114,10 @@
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
-      <c r="AJ25" s="4"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="4"/>
     </row>
-    <row r="26" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5056,9 +5153,10 @@
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
       <c r="AI26" s="3"/>
-      <c r="AJ26" s="4"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="4"/>
     </row>
-    <row r="27" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5094,9 +5192,10 @@
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
-      <c r="AJ27" s="4"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="4"/>
     </row>
-    <row r="28" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5132,9 +5231,10 @@
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
       <c r="AI28" s="3"/>
-      <c r="AJ28" s="4"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="4"/>
     </row>
-    <row r="29" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5170,9 +5270,10 @@
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
       <c r="AI29" s="3"/>
-      <c r="AJ29" s="4"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="4"/>
     </row>
-    <row r="30" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5208,9 +5309,10 @@
       <c r="AG30" s="3"/>
       <c r="AH30" s="3"/>
       <c r="AI30" s="3"/>
-      <c r="AJ30" s="4"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="4"/>
     </row>
-    <row r="31" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5246,9 +5348,10 @@
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
       <c r="AI31" s="3"/>
-      <c r="AJ31" s="4"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="4"/>
     </row>
-    <row r="32" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5284,9 +5387,10 @@
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
       <c r="AI32" s="3"/>
-      <c r="AJ32" s="4"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="4"/>
     </row>
-    <row r="33" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5322,19 +5426,31 @@
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
       <c r="AI33" s="3"/>
-      <c r="AJ33" s="4"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="4"/>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="K34" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="pass">
+  <conditionalFormatting sqref="A1:J1048576 L1:XFD1048576">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",A1)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",K1)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",A1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("fail",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test1.xlsx
+++ b/Test1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442F2E9E-2DF1-D84C-A9E0-6F3DAAF960DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340017DF-4BB5-EE44-B03A-495A8E83A6FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="703">
   <si>
     <t>Featuretabelle_Tischplatte</t>
   </si>
@@ -2211,7 +2211,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2236,34 +2236,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2584,13 +2561,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK34"/>
+  <dimension ref="A1:AJ33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2603,14 +2580,13 @@
     <col min="6" max="8" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="34" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="21.5" style="1"/>
+    <col min="11" max="33" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="21.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2622,9 +2598,8 @@
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
-      <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:37" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2656,85 +2631,82 @@
         <v>10</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2766,88 +2738,85 @@
         <v>43</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -2879,88 +2848,85 @@
         <v>78</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AK4" s="4" t="s">
+      <c r="AJ4" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>6</v>
       </c>
@@ -2992,88 +2958,85 @@
         <v>113</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AI5" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AJ5" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="AK5" s="4" t="s">
+      <c r="AJ5" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>32</v>
       </c>
@@ -3105,88 +3068,85 @@
         <v>148</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AI6" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AJ6" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="AK6" s="4" t="s">
+      <c r="AJ6" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>33</v>
       </c>
@@ -3218,88 +3178,85 @@
         <v>183</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AH7" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AI7" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="AJ7" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="AK7" s="4" t="s">
+      <c r="AJ7" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>34</v>
       </c>
@@ -3331,88 +3288,85 @@
         <v>218</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AD8" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AH8" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AI8" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="AJ8" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="AK8" s="4" t="s">
+      <c r="AJ8" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>55</v>
       </c>
@@ -3444,88 +3398,85 @@
         <v>253</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG9" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AH9" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AI9" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AJ9" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="AK9" s="4" t="s">
+      <c r="AJ9" s="4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>56</v>
       </c>
@@ -3557,88 +3508,85 @@
         <v>288</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AC10" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AD10" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AE10" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF10" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG10" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AH10" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AI10" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="AJ10" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="AK10" s="4" t="s">
+      <c r="AJ10" s="4" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="11" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>57</v>
       </c>
@@ -3670,88 +3618,85 @@
         <v>323</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>246</v>
+        <v>324</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF11" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG11" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AH11" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AI11" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="AJ11" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="AK11" s="4" t="s">
+      <c r="AJ11" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>58</v>
       </c>
@@ -3783,88 +3728,85 @@
         <v>358</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>246</v>
+        <v>359</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="AJ12" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="AK12" s="4" t="s">
+      <c r="AJ12" s="4" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>59</v>
       </c>
@@ -3896,88 +3838,85 @@
         <v>393</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AC13" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AD13" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF13" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AH13" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AI13" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="AJ13" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="AK13" s="4" t="s">
+      <c r="AJ13" s="4" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="14" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>60</v>
       </c>
@@ -4009,88 +3948,85 @@
         <v>428</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AB14" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AC14" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AD14" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AE14" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AF14" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG14" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AH14" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AI14" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="AJ14" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="AK14" s="4" t="s">
+      <c r="AJ14" s="4" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="15" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>61</v>
       </c>
@@ -4122,88 +4058,85 @@
         <v>463</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>386</v>
+        <v>464</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Z15" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AB15" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AC15" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AD15" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AE15" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AF15" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG15" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AH15" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AI15" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="AJ15" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="AK15" s="4" t="s">
+      <c r="AJ15" s="4" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="16" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>62</v>
       </c>
@@ -4235,88 +4168,85 @@
         <v>498</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>386</v>
+        <v>499</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AB16" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AC16" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AD16" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AE16" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF16" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG16" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AH16" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AI16" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="AJ16" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="AK16" s="4" t="s">
+      <c r="AJ16" s="4" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="17" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>63</v>
       </c>
@@ -4348,88 +4278,85 @@
         <v>533</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>386</v>
+        <v>534</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AA17" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AB17" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AC17" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AD17" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AE17" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AF17" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AG17" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AH17" s="3" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AI17" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="AJ17" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="AK17" s="4" t="s">
+      <c r="AJ17" s="4" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="18" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>64</v>
       </c>
@@ -4461,88 +4388,85 @@
         <v>568</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>386</v>
+        <v>569</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="Z18" s="3" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AB18" s="3" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AC18" s="3" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AD18" s="3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AE18" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AF18" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AG18" s="3" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AH18" s="3" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AI18" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="AJ18" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="AK18" s="4" t="s">
+      <c r="AJ18" s="4" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="19" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>65</v>
       </c>
@@ -4574,88 +4498,85 @@
         <v>603</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>561</v>
+        <v>604</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="Z19" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AB19" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AC19" s="3" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AD19" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AE19" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AF19" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AG19" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AH19" s="3" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AI19" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="AJ19" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="AK19" s="4" t="s">
+      <c r="AJ19" s="4" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="20" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>66</v>
       </c>
@@ -4687,88 +4608,85 @@
         <v>638</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>561</v>
+        <v>639</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AB20" s="3" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AC20" s="3" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AD20" s="3" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AE20" s="3" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AF20" s="3" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AG20" s="3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AH20" s="3" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AI20" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="AJ20" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="AK20" s="4" t="s">
+      <c r="AJ20" s="4" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="21" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>67</v>
       </c>
@@ -4800,88 +4718,85 @@
         <v>673</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>561</v>
+        <v>674</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="Y21" s="3" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AB21" s="3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AC21" s="3" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AD21" s="3" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AE21" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AF21" s="3" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AG21" s="3" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AH21" s="3" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AI21" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="AJ21" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="AK21" s="4" t="s">
+      <c r="AJ21" s="4" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="22" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>63</v>
       </c>
@@ -4913,7 +4828,7 @@
         <v>41</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>561</v>
+        <v>41</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>41</v>
@@ -4925,34 +4840,34 @@
         <v>41</v>
       </c>
       <c r="O22" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="P22" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>702</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>41</v>
       </c>
       <c r="R22" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="X22" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>403</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>41</v>
@@ -4961,40 +4876,37 @@
         <v>41</v>
       </c>
       <c r="AA22" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="AF22" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="AG22" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="AH22" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="AB22" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="AC22" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="AD22" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="AE22" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="AF22" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="AG22" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="AH22" s="3" t="s">
-        <v>403</v>
       </c>
       <c r="AI22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AJ22" s="3" t="s">
+      <c r="AJ22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AK22" s="4" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="23" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5005,9 +4917,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="3" t="s">
-        <v>561</v>
-      </c>
+      <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -5032,10 +4942,9 @@
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
-      <c r="AJ23" s="3"/>
-      <c r="AK23" s="4"/>
+      <c r="AJ23" s="4"/>
     </row>
-    <row r="24" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5046,9 +4955,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="3" t="s">
-        <v>561</v>
-      </c>
+      <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -5073,10 +4980,9 @@
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
-      <c r="AJ24" s="3"/>
-      <c r="AK24" s="4"/>
+      <c r="AJ24" s="4"/>
     </row>
-    <row r="25" spans="1:37" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5087,9 +4993,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="3" t="s">
-        <v>561</v>
-      </c>
+      <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -5114,10 +5018,9 @@
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
-      <c r="AJ25" s="3"/>
-      <c r="AK25" s="4"/>
+      <c r="AJ25" s="4"/>
     </row>
-    <row r="26" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5153,10 +5056,9 @@
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
       <c r="AI26" s="3"/>
-      <c r="AJ26" s="3"/>
-      <c r="AK26" s="4"/>
+      <c r="AJ26" s="4"/>
     </row>
-    <row r="27" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5192,10 +5094,9 @@
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
-      <c r="AJ27" s="3"/>
-      <c r="AK27" s="4"/>
+      <c r="AJ27" s="4"/>
     </row>
-    <row r="28" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5231,10 +5132,9 @@
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
       <c r="AI28" s="3"/>
-      <c r="AJ28" s="3"/>
-      <c r="AK28" s="4"/>
+      <c r="AJ28" s="4"/>
     </row>
-    <row r="29" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5270,10 +5170,9 @@
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
       <c r="AI29" s="3"/>
-      <c r="AJ29" s="3"/>
-      <c r="AK29" s="4"/>
+      <c r="AJ29" s="4"/>
     </row>
-    <row r="30" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5309,10 +5208,9 @@
       <c r="AG30" s="3"/>
       <c r="AH30" s="3"/>
       <c r="AI30" s="3"/>
-      <c r="AJ30" s="3"/>
-      <c r="AK30" s="4"/>
+      <c r="AJ30" s="4"/>
     </row>
-    <row r="31" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5348,10 +5246,9 @@
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
       <c r="AI31" s="3"/>
-      <c r="AJ31" s="3"/>
-      <c r="AK31" s="4"/>
+      <c r="AJ31" s="4"/>
     </row>
-    <row r="32" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5387,10 +5284,9 @@
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
       <c r="AI32" s="3"/>
-      <c r="AJ32" s="3"/>
-      <c r="AK32" s="4"/>
+      <c r="AJ32" s="4"/>
     </row>
-    <row r="33" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5426,31 +5322,19 @@
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
       <c r="AI33" s="3"/>
-      <c r="AJ33" s="3"/>
-      <c r="AK33" s="4"/>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="K34" s="3"/>
+      <c r="AJ33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A1:J1048576 L1:XFD1048576">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="pass">
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",A1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH("pass",K1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
